--- a/data/trans_dic/P16A08-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A08-Clase-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02337028785132201</v>
+        <v>0.02360431848629559</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02650087951286175</v>
+        <v>0.02515948930621095</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01985272786197086</v>
+        <v>0.02004351509451643</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01702406467836893</v>
+        <v>0.01507546800322083</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.0121396522354914</v>
+        <v>0.01196595537553107</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03330320439862767</v>
+        <v>0.03355089845583589</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02841622166960622</v>
+        <v>0.02826805092371907</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03877757321079774</v>
+        <v>0.03896483009983814</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02323800196055591</v>
+        <v>0.02330659849818567</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.03500168998478859</v>
+        <v>0.03455599696355012</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02838163847094098</v>
+        <v>0.02850126733786945</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.03113876032926826</v>
+        <v>0.0308777119008746</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06385734950988536</v>
+        <v>0.06535110337226253</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06754477561419411</v>
+        <v>0.06616991890373403</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05617578993666751</v>
+        <v>0.05977759840875857</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05506080701739674</v>
+        <v>0.05196296721621782</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04526007150380428</v>
+        <v>0.04601400024445397</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.08435838607898882</v>
+        <v>0.08899470072366061</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.07482974860778296</v>
+        <v>0.07518845354726864</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.0793875840871939</v>
+        <v>0.07689774110575262</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05133706106602076</v>
+        <v>0.04955676541519528</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.06689664831689139</v>
+        <v>0.06742318675208098</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.05717249025756526</v>
+        <v>0.05922449900232844</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.05779544770400736</v>
+        <v>0.05673102993170513</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.03641647469197185</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.03324773788385393</v>
+        <v>0.03324773788385392</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.06823565340810306</v>
@@ -821,7 +821,7 @@
         <v>0.05490706361731139</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.0749381159313508</v>
+        <v>0.07493811593135082</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.03705848809011419</v>
@@ -833,7 +833,7 @@
         <v>0.0456006635580646</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.05271139785831663</v>
+        <v>0.05271139785831664</v>
       </c>
     </row>
     <row r="8">
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02732921521698</v>
+        <v>0.02908995562202747</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01986950558537276</v>
+        <v>0.02155528279820501</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.019580714375246</v>
+        <v>0.01861253441546397</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04246147561105128</v>
+        <v>0.04496081608996323</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04751810697229827</v>
+        <v>0.0442043425944323</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03540302719302277</v>
+        <v>0.03370921588404244</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05570511247132108</v>
+        <v>0.0555375687129686</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02454923295858567</v>
+        <v>0.02463465428223391</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.04128163582525795</v>
+        <v>0.04037753253335368</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03219187104890951</v>
+        <v>0.03240757479678918</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.03993885314104649</v>
+        <v>0.03964557958899655</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01720623915602893</v>
+        <v>0.01743173923199161</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.07492932822997211</v>
+        <v>0.07415447026632335</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06203378663437324</v>
+        <v>0.064385399917561</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0577451483805133</v>
+        <v>0.0550456998414472</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1000956526101283</v>
+        <v>0.0974410862324321</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1031512876678424</v>
+        <v>0.1024695172983598</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.08111270312457658</v>
+        <v>0.08216938557042008</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1051916820920986</v>
+        <v>0.1033366443252004</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05634810855407439</v>
+        <v>0.05631444364101901</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.07930844101742994</v>
+        <v>0.07607266464359398</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.06491002859642901</v>
+        <v>0.06327258184206307</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.06928651518314857</v>
+        <v>0.06766783557373086</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.08226084065912842</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.05508925781765991</v>
+        <v>0.0550892578176599</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.02461796103210374</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01607530405278853</v>
+        <v>0.0152060149343459</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01821238681561083</v>
+        <v>0.01944179809961389</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01353000768948398</v>
+        <v>0.01370122639237253</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02499763431370245</v>
+        <v>0.02575877652208798</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.005319730115021109</v>
+        <v>0.005367514914285823</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02762352117457378</v>
+        <v>0.02699412262720411</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04630828662886622</v>
+        <v>0.04599035128471111</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.0312512351500138</v>
+        <v>0.03134554481901295</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01455575871593808</v>
+        <v>0.01466992599967518</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02575779105284186</v>
+        <v>0.02664592164971649</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02667825680127095</v>
+        <v>0.02529950967127216</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.0339465681608859</v>
+        <v>0.0334767251313975</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04490403284901343</v>
+        <v>0.04536534774290105</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05323255115630337</v>
+        <v>0.0510051089747966</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04169033595172855</v>
+        <v>0.04355834942494258</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06585431887004507</v>
+        <v>0.06914404400662658</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04819033794294089</v>
+        <v>0.05173694882888721</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.09029080260865498</v>
+        <v>0.08302607245977496</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1377562134684197</v>
+        <v>0.1371339292946938</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.08642858167379359</v>
+        <v>0.08559661928988835</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04047673043655062</v>
+        <v>0.03782352599702751</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.05511712962909179</v>
+        <v>0.05407862699908779</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.05834034645186899</v>
+        <v>0.05449596172048789</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.07119037811860238</v>
+        <v>0.06665595174430748</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01545002162438672</v>
+        <v>0.01585537963504301</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01524937609987591</v>
+        <v>0.0158391289121368</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01575130267629735</v>
+        <v>0.01658789698177591</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01998927742814508</v>
+        <v>0.0217185867308739</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02944797477535132</v>
+        <v>0.02846873855805229</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.05444402945803089</v>
+        <v>0.05512130257181257</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04490498645683448</v>
+        <v>0.0452523896812921</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03478853450474586</v>
+        <v>0.03508627177003278</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.0234890165419088</v>
+        <v>0.0234761320145316</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03512161470593125</v>
+        <v>0.03372013843588336</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03110152039743224</v>
+        <v>0.03049964877604419</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02965658770196587</v>
+        <v>0.03016820041245126</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03430813675834586</v>
+        <v>0.03516235637618755</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03529990555055271</v>
+        <v>0.03403018420614741</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03428130975747021</v>
+        <v>0.03505412623735896</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04292420798153996</v>
+        <v>0.04526518868967067</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05903386154919033</v>
+        <v>0.05998282589995899</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.09609642979090195</v>
+        <v>0.09286000005888309</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.08034720595327763</v>
+        <v>0.07938254757894103</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.05948162794859874</v>
+        <v>0.06040895841355233</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03900244200314856</v>
+        <v>0.04039426809272387</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.05441194221936207</v>
+        <v>0.05393533082434548</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.04907963708989972</v>
+        <v>0.04866752302075358</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.04754420038778647</v>
+        <v>0.04703932941534655</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.005809322013726296</v>
+        <v>0.007493608502336152</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01622391672440121</v>
+        <v>0.01697786445880675</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02016058393079932</v>
+        <v>0.02061665259323141</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02070069533170103</v>
+        <v>0.01983144466206937</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02143872313785957</v>
+        <v>0.02067858743890884</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.0263220676731661</v>
+        <v>0.02839424802075447</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.03574811792028421</v>
+        <v>0.0361049845227541</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.03545340415991254</v>
+        <v>0.0347168835867086</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0179195506139008</v>
+        <v>0.01835175699362266</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.02642266985744822</v>
+        <v>0.02612012367280631</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.03278523095058831</v>
+        <v>0.03252759349423933</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.03216307144754463</v>
+        <v>0.0324111311124745</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03654865893761439</v>
+        <v>0.03606619303473371</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04736830182178711</v>
+        <v>0.04673932724839012</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.05132425894254818</v>
+        <v>0.05050852090337031</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.05556090755581292</v>
+        <v>0.0555477471172343</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.05398199948726706</v>
+        <v>0.05264798011734877</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.05702924694897467</v>
+        <v>0.05722930347130306</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.07167943287674566</v>
+        <v>0.06947012077839944</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.06126598754527213</v>
+        <v>0.06053792997036254</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04021381318438693</v>
+        <v>0.04111056107050925</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.04738895698914346</v>
+        <v>0.04723842168627859</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.05535756503580345</v>
+        <v>0.05623180111436644</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.051534332244336</v>
+        <v>0.05239926565838719</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.04693606366381322</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.03763690165504949</v>
+        <v>0.03763690165504948</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.03485016865356359</v>
@@ -1377,7 +1377,7 @@
         <v>0.04719382669136319</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.03628380257541584</v>
+        <v>0.03628380257541583</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01136752875711275</v>
+        <v>0.01147346374132203</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03446495869377635</v>
+        <v>0.03357764965414984</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.02775666602226564</v>
+        <v>0.02714890715012779</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.009577993315609889</v>
+        <v>0.009883460924258307</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.02860519805711611</v>
+        <v>0.02744603392118932</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.03720592859199804</v>
+        <v>0.03913922074706283</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.03396946227459133</v>
+        <v>0.03417059933608718</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.02661020995215808</v>
+        <v>0.02613485671046176</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.02569611075970027</v>
+        <v>0.02603915160032624</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.0405835002405535</v>
+        <v>0.04088275146533527</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.0356747177160032</v>
+        <v>0.03662016878757755</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.02511881909836487</v>
+        <v>0.02535238285575974</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.04400087121224566</v>
+        <v>0.04497475116086982</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.09824817825721639</v>
+        <v>0.09478149958599376</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.07966794095005379</v>
+        <v>0.08110181457142851</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.08043415754727801</v>
+        <v>0.08467491832089763</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.04875317077644979</v>
+        <v>0.04891042178721503</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.06344230233078287</v>
+        <v>0.06730451864806625</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.0611947615110327</v>
+        <v>0.06083030591273707</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.05439360612492495</v>
+        <v>0.05329364379307988</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.04448414666780785</v>
+        <v>0.0442914430322978</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.06605522502333913</v>
+        <v>0.0646278063968725</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.05974167244498943</v>
+        <v>0.05990162336582282</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.04980148926671517</v>
+        <v>0.05011719390765007</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.03078691169790578</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.03354488935036659</v>
+        <v>0.03354488935036658</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.03915680168710263</v>
@@ -1501,7 +1501,7 @@
         <v>0.05366100347908467</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.04946490270694543</v>
+        <v>0.04946490270694542</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.0316654059338364</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01896500523420135</v>
+        <v>0.01864991207825832</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02800431173007447</v>
+        <v>0.02809397925797416</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02505484897761013</v>
+        <v>0.02536396918833972</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.02767424882788477</v>
+        <v>0.02706119846300977</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.03254083171479083</v>
+        <v>0.03304321406395152</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.04755533410045844</v>
+        <v>0.04734004306541165</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.04567556151820038</v>
+        <v>0.04609157773740445</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.04349430803819289</v>
+        <v>0.04364761865371548</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.02753357933924118</v>
+        <v>0.02774404991283259</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.03980618470518811</v>
+        <v>0.03951151627266308</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.03789663548359792</v>
+        <v>0.03761872380580373</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.03723396924185625</v>
+        <v>0.03756106490794438</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02986454497539652</v>
+        <v>0.02973628662062289</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04093210161564316</v>
+        <v>0.04132908585349757</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.03776221863061033</v>
+        <v>0.0373205309660961</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.04101091637551013</v>
+        <v>0.04119998731390292</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.04647140677032281</v>
+        <v>0.04671103673341796</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.06357715725707033</v>
+        <v>0.06325553521243227</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.06172301516870443</v>
+        <v>0.06152064347287674</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.05632654820202108</v>
+        <v>0.05701046038983407</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.03630605960254336</v>
+        <v>0.03697564430964868</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.0501266054916429</v>
+        <v>0.04969077032555942</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.0478434861975993</v>
+        <v>0.0477681956501913</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.04664200181145522</v>
+        <v>0.0465177832598039</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>11072</v>
+        <v>11183</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>11586</v>
+        <v>11000</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>8519</v>
+        <v>8601</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>9374</v>
+        <v>8301</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3723</v>
+        <v>3670</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>10436</v>
+        <v>10514</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>9862</v>
+        <v>9811</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>18939</v>
+        <v>19031</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>18136</v>
+        <v>18190</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>26271</v>
+        <v>25937</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>22028</v>
+        <v>22121</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>32354</v>
+        <v>32083</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>30254</v>
+        <v>30962</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>29531</v>
+        <v>28930</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>24105</v>
+        <v>25650</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>30317</v>
+        <v>28612</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>13880</v>
+        <v>14112</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>26435</v>
+        <v>27888</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>25970</v>
+        <v>26095</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>38774</v>
+        <v>37558</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>40066</v>
+        <v>38677</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>50211</v>
+        <v>50606</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>44374</v>
+        <v>45967</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>60051</v>
+        <v>58945</v>
       </c>
     </row>
     <row r="8">
@@ -2057,37 +2057,37 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>11397</v>
+        <v>12131</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>7495</v>
+        <v>8131</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>9462</v>
+        <v>8994</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>15790</v>
+        <v>16719</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>15934</v>
+        <v>14822</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>13180</v>
+        <v>12549</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>23571</v>
+        <v>23500</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>18137</v>
+        <v>18200</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>31058</v>
+        <v>30377</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>24128</v>
+        <v>24289</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>36199</v>
+        <v>35933</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>6314</v>
+        <v>6396</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>31247</v>
+        <v>30924</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>23401</v>
+        <v>24288</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>27903</v>
+        <v>26599</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>37222</v>
+        <v>36235</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>34588</v>
+        <v>34360</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>30196</v>
+        <v>30589</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>44511</v>
+        <v>43726</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>41630</v>
+        <v>41605</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>59666</v>
+        <v>57232</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>48650</v>
+        <v>47423</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>62798</v>
+        <v>61331</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>8719</v>
+        <v>8248</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>11407</v>
+        <v>12177</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>7062</v>
+        <v>7151</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>11789</v>
+        <v>12148</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>893</v>
+        <v>901</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>7125</v>
+        <v>6963</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>7693</v>
+        <v>7640</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>5860</v>
+        <v>5877</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>10337</v>
+        <v>10418</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>22777</v>
+        <v>23562</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>18356</v>
+        <v>17407</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>22374</v>
+        <v>22065</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>24355</v>
+        <v>24606</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>33342</v>
+        <v>31946</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>21759</v>
+        <v>22734</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>31058</v>
+        <v>32609</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>8085</v>
+        <v>8681</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>23289</v>
+        <v>21416</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>22884</v>
+        <v>22781</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>16205</v>
+        <v>16049</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>28745</v>
+        <v>26861</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>48739</v>
+        <v>47820</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>40140</v>
+        <v>37495</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>46922</v>
+        <v>43934</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>19132</v>
+        <v>19634</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>17648</v>
+        <v>18331</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>18108</v>
+        <v>19070</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>22625</v>
+        <v>24582</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>21034</v>
+        <v>20335</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>41740</v>
+        <v>42259</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>37086</v>
+        <v>37373</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>29928</v>
+        <v>30184</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>45865</v>
+        <v>45840</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>67573</v>
+        <v>64877</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>61441</v>
+        <v>60252</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>59080</v>
+        <v>60099</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>42485</v>
+        <v>43543</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>40853</v>
+        <v>39384</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>39411</v>
+        <v>40300</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>48583</v>
+        <v>51233</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>42167</v>
+        <v>42845</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>73673</v>
+        <v>71192</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>66357</v>
+        <v>65560</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>51171</v>
+        <v>51969</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>76157</v>
+        <v>78875</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>104687</v>
+        <v>103770</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>96958</v>
+        <v>96143</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>94714</v>
+        <v>93708</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2031</v>
+        <v>2619</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>8284</v>
+        <v>8669</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>12514</v>
+        <v>12797</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>11727</v>
+        <v>11234</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>12193</v>
+        <v>11761</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>19962</v>
+        <v>21533</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>26391</v>
+        <v>26654</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>29431</v>
+        <v>28819</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>16455</v>
+        <v>16852</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>33529</v>
+        <v>33145</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>44553</v>
+        <v>44203</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>44919</v>
+        <v>45266</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>12775</v>
+        <v>12606</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>24186</v>
+        <v>23865</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>31857</v>
+        <v>31351</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>31474</v>
+        <v>31467</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>30702</v>
+        <v>29944</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>43249</v>
+        <v>43401</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>52917</v>
+        <v>51286</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>50859</v>
+        <v>50254</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>36928</v>
+        <v>37751</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>60135</v>
+        <v>59944</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>75228</v>
+        <v>76416</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>71973</v>
+        <v>73181</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>3390</v>
+        <v>3421</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>9162</v>
+        <v>8926</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>7970</v>
+        <v>7796</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>2272</v>
+        <v>2345</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>35721</v>
+        <v>34274</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>41122</v>
+        <v>43259</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>36756</v>
+        <v>36973</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>22432</v>
+        <v>22032</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>39751</v>
+        <v>40282</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>55644</v>
+        <v>56054</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>48845</v>
+        <v>50139</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>27134</v>
+        <v>27386</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>13121</v>
+        <v>13412</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>26118</v>
+        <v>25197</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>22876</v>
+        <v>23288</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>19081</v>
+        <v>20087</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>60881</v>
+        <v>61077</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>70120</v>
+        <v>74389</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>66214</v>
+        <v>65820</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>45853</v>
+        <v>44926</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>68815</v>
+        <v>68517</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>90568</v>
+        <v>88611</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>81797</v>
+        <v>82016</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>53797</v>
+        <v>54138</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>62000</v>
+        <v>60970</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>95616</v>
+        <v>95922</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>84829</v>
+        <v>85875</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>95227</v>
+        <v>93117</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>109927</v>
+        <v>111624</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>168199</v>
+        <v>167437</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>161308</v>
+        <v>162777</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>157991</v>
+        <v>158548</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>183024</v>
+        <v>184423</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>276702</v>
+        <v>274653</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>262143</v>
+        <v>260221</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>263373</v>
+        <v>265686</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>97632</v>
+        <v>97213</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>139755</v>
+        <v>141111</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>127852</v>
+        <v>126357</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>141118</v>
+        <v>141769</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>156986</v>
+        <v>157796</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>224866</v>
+        <v>223729</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>217981</v>
+        <v>217266</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>204604</v>
+        <v>207088</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>241337</v>
+        <v>245788</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>348441</v>
+        <v>345412</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>330949</v>
+        <v>330428</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>329920</v>
+        <v>329041</v>
       </c>
     </row>
     <row r="32">
